--- a/data/old_posteriors/elementary_skills_reduced/simple_model/leak/constrained/results_model1c_leak_constrained.xlsx
+++ b/data/old_posteriors/elementary_skills_reduced/simple_model/leak/constrained/results_model1c_leak_constrained.xlsx
@@ -1149,9 +1149,7 @@
       <c r="AA3" t="n" s="53">
         <v>0.999789063859661</v>
       </c>
-      <c r="AB3" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB3" s="53"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1226,9 +1224,7 @@
       <c r="AA4" t="n" s="53">
         <v>0.9999999989709389</v>
       </c>
-      <c r="AB4" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB4" s="53"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1303,9 +1299,7 @@
       <c r="AA5" t="n" s="53">
         <v>0.9999999999235255</v>
       </c>
-      <c r="AB5" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1380,9 +1374,7 @@
       <c r="AA6" t="n" s="53">
         <v>0.9999999999981503</v>
       </c>
-      <c r="AB6" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB6" s="53"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1457,9 +1449,7 @@
       <c r="AA7" t="n" s="53">
         <v>0.9999999978576115</v>
       </c>
-      <c r="AB7" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB7" s="53"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1534,9 +1524,7 @@
       <c r="AA8" t="n" s="53">
         <v>0.9999973709862283</v>
       </c>
-      <c r="AB8" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB8" s="53"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,9 +1599,7 @@
       <c r="AA9" t="n" s="53">
         <v>0.9999999999999571</v>
       </c>
-      <c r="AB9" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB9" s="53"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1688,9 +1674,7 @@
       <c r="AA10" t="n" s="53">
         <v>0.9999999999747163</v>
       </c>
-      <c r="AB10" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB10" s="53"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1765,9 +1749,7 @@
       <c r="AA11" t="n" s="53">
         <v>0.9999999987793348</v>
       </c>
-      <c r="AB11" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB11" s="53"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1842,9 +1824,7 @@
       <c r="AA12" t="n" s="53">
         <v>0.9999999999999571</v>
       </c>
-      <c r="AB12" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB12" s="53"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1919,9 +1899,7 @@
       <c r="AA13" t="n" s="53">
         <v>0.9999937295519679</v>
       </c>
-      <c r="AB13" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB13" s="53"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1996,9 +1974,7 @@
       <c r="AA14" t="n" s="53">
         <v>0.93864603243085</v>
       </c>
-      <c r="AB14" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB14" s="53"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2073,9 +2049,7 @@
       <c r="AA15" t="n" s="53">
         <v>0.9999988522223084</v>
       </c>
-      <c r="AB15" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB15" s="53"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2150,9 +2124,7 @@
       <c r="AA16" t="n" s="53">
         <v>0.9999998323149122</v>
       </c>
-      <c r="AB16" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB16" s="53"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2227,9 +2199,7 @@
       <c r="AA17" t="n" s="53">
         <v>0.9999999999936878</v>
       </c>
-      <c r="AB17" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB17" s="53"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,9 +2274,7 @@
       <c r="AA18" t="n" s="53">
         <v>0.9999999999999565</v>
       </c>
-      <c r="AB18" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB18" s="53"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2381,9 +2349,7 @@
       <c r="AA19" t="n" s="53">
         <v>0.9999999999981503</v>
       </c>
-      <c r="AB19" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB19" s="53"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2458,9 +2424,7 @@
       <c r="AA20" t="n" s="53">
         <v>0.9999999999235255</v>
       </c>
-      <c r="AB20" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB20" s="53"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2535,9 +2499,7 @@
       <c r="AA21" t="n" s="53">
         <v>0.999999999999999</v>
       </c>
-      <c r="AB21" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB21" s="53"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2612,9 +2574,7 @@
       <c r="AA22" t="n" s="53">
         <v>0.9999999999981789</v>
       </c>
-      <c r="AB22" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB22" s="53"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2689,9 +2649,7 @@
       <c r="AA23" t="n" s="53">
         <v>0.9999999999981503</v>
       </c>
-      <c r="AB23" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB23" s="53"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2766,9 +2724,7 @@
       <c r="AA24" t="n" s="53">
         <v>0.9999999999981789</v>
       </c>
-      <c r="AB24" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB24" s="53"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2843,9 +2799,7 @@
       <c r="AA25" t="n" s="53">
         <v>0.9999999995275881</v>
       </c>
-      <c r="AB25" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB25" s="53"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2920,9 +2874,7 @@
       <c r="AA26" t="n" s="53">
         <v>0.9998774585957511</v>
       </c>
-      <c r="AB26" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB26" s="53"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,9 +2949,7 @@
       <c r="AA27" t="n" s="53">
         <v>0.86362479131111</v>
       </c>
-      <c r="AB27" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB27" s="53"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3074,9 +3024,7 @@
       <c r="AA28" t="n" s="53">
         <v>0.9999999913846053</v>
       </c>
-      <c r="AB28" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB28" s="53"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3151,9 +3099,7 @@
       <c r="AA29" t="n" s="53">
         <v>0.9999990904825756</v>
       </c>
-      <c r="AB29" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB29" s="53"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3228,9 +3174,7 @@
       <c r="AA30" t="n" s="53">
         <v>0.021267417177375094</v>
       </c>
-      <c r="AB30" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB30" s="53"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3305,9 +3249,7 @@
       <c r="AA31" t="n" s="53">
         <v>0.9999999999999565</v>
       </c>
-      <c r="AB31" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB31" s="53"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3382,9 +3324,7 @@
       <c r="AA32" t="n" s="53">
         <v>0.019371180783766317</v>
       </c>
-      <c r="AB32" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB32" s="53"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3459,9 +3399,7 @@
       <c r="AA33" t="n" s="53">
         <v>0.06280160039945534</v>
       </c>
-      <c r="AB33" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB33" s="53"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3536,9 +3474,7 @@
       <c r="AA34" t="n" s="53">
         <v>0.1760510852791122</v>
       </c>
-      <c r="AB34" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB34" s="53"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3613,9 +3549,7 @@
       <c r="AA35" t="n" s="53">
         <v>2.7624850063486266E-4</v>
       </c>
-      <c r="AB35" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB35" s="53"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3690,9 +3624,7 @@
       <c r="AA36" t="n" s="53">
         <v>0.013919831013621538</v>
       </c>
-      <c r="AB36" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB36" s="53"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3767,9 +3699,7 @@
       <c r="AA37" t="n" s="53">
         <v>0.1760510852791122</v>
       </c>
-      <c r="AB37" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB37" s="53"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3844,9 +3774,7 @@
       <c r="AA38" t="n" s="53">
         <v>0.9999189513076805</v>
       </c>
-      <c r="AB38" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB38" s="53"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3921,9 +3849,7 @@
       <c r="AA39" t="n" s="53">
         <v>0.2048242458636715</v>
       </c>
-      <c r="AB39" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB39" s="53"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3998,9 +3924,7 @@
       <c r="AA40" t="n" s="53">
         <v>0.052927847422371055</v>
       </c>
-      <c r="AB40" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB40" s="53"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4075,9 +3999,7 @@
       <c r="AA41" t="n" s="53">
         <v>0.999999999926942</v>
       </c>
-      <c r="AB41" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB41" s="53"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4152,9 +4074,7 @@
       <c r="AA42" t="n" s="53">
         <v>6.389769340690688E-4</v>
       </c>
-      <c r="AB42" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB42" s="53"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4229,9 +4149,7 @@
       <c r="AA43" t="n" s="53">
         <v>0.02018860773782176</v>
       </c>
-      <c r="AB43" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB43" s="53"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4306,9 +4224,7 @@
       <c r="AA44" t="n" s="53">
         <v>0.7444595632983056</v>
       </c>
-      <c r="AB44" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB44" s="53"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4383,9 +4299,7 @@
       <c r="AA45" t="n" s="53">
         <v>0.046704007047509676</v>
       </c>
-      <c r="AB45" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB45" s="53"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4460,9 +4374,7 @@
       <c r="AA46" t="n" s="53">
         <v>1.4520513788874946E-8</v>
       </c>
-      <c r="AB46" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB46" s="53"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4537,9 +4449,7 @@
       <c r="AA47" t="n" s="53">
         <v>4.885768255239358E-4</v>
       </c>
-      <c r="AB47" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB47" s="53"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4614,9 +4524,7 @@
       <c r="AA48" t="n" s="53">
         <v>0.006495755686073633</v>
       </c>
-      <c r="AB48" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB48" s="53"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4691,9 +4599,7 @@
       <c r="AA49" t="n" s="53">
         <v>0.0010005543999600781</v>
       </c>
-      <c r="AB49" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB49" s="53"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4768,9 +4674,7 @@
       <c r="AA50" t="n" s="53">
         <v>6.286825802975778E-5</v>
       </c>
-      <c r="AB50" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB50" s="53"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4845,9 +4749,7 @@
       <c r="AA51" t="n" s="53">
         <v>6.081993315448177E-6</v>
       </c>
-      <c r="AB51" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB51" s="53"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4922,9 +4824,7 @@
       <c r="AA52" t="n" s="53">
         <v>0.003518133798182778</v>
       </c>
-      <c r="AB52" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB52" s="53"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4999,9 +4899,7 @@
       <c r="AA53" t="n" s="53">
         <v>0.9999966422222926</v>
       </c>
-      <c r="AB53" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB53" s="53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,9 +4974,7 @@
       <c r="AA54" t="n" s="53">
         <v>0.9999998128781687</v>
       </c>
-      <c r="AB54" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB54" s="53"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5153,9 +5049,7 @@
       <c r="AA55" t="n" s="53">
         <v>0.9916799723026324</v>
       </c>
-      <c r="AB55" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB55" s="53"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5230,9 +5124,7 @@
       <c r="AA56" t="n" s="53">
         <v>0.9999999999981503</v>
       </c>
-      <c r="AB56" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB56" s="53"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5307,9 +5199,7 @@
       <c r="AA57" t="n" s="53">
         <v>0.9973092077812302</v>
       </c>
-      <c r="AB57" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB57" s="53"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5384,9 +5274,7 @@
       <c r="AA58" t="n" s="53">
         <v>0.9999973709862283</v>
       </c>
-      <c r="AB58" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB58" s="53"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5461,9 +5349,7 @@
       <c r="AA59" t="n" s="53">
         <v>0.9999808672505937</v>
       </c>
-      <c r="AB59" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB59" s="53"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5538,9 +5424,7 @@
       <c r="AA60" t="n" s="53">
         <v>0.9999999967628134</v>
       </c>
-      <c r="AB60" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB60" s="53"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5615,9 +5499,7 @@
       <c r="AA61" t="n" s="53">
         <v>0.9999945411290988</v>
       </c>
-      <c r="AB61" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB61" s="53"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5692,9 +5574,7 @@
       <c r="AA62" t="n" s="53">
         <v>0.9999975918711438</v>
       </c>
-      <c r="AB62" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB62" s="53"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5769,9 +5649,7 @@
       <c r="AA63" t="n" s="53">
         <v>0.999999972494918</v>
       </c>
-      <c r="AB63" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB63" s="53"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5846,9 +5724,7 @@
       <c r="AA64" t="n" s="53">
         <v>0.9999999989180969</v>
       </c>
-      <c r="AB64" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB64" s="53"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5923,9 +5799,7 @@
       <c r="AA65" t="n" s="53">
         <v>0.9999999573302957</v>
       </c>
-      <c r="AB65" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB65" s="53"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6000,9 +5874,7 @@
       <c r="AA66" t="n" s="53">
         <v>0.010403206144594893</v>
       </c>
-      <c r="AB66" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB66" s="53"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6077,9 +5949,7 @@
       <c r="AA67" t="n" s="53">
         <v>0.9846621322102632</v>
       </c>
-      <c r="AB67" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB67" s="53"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6154,9 +6024,7 @@
       <c r="AA68" t="n" s="53">
         <v>0.9999988450610284</v>
       </c>
-      <c r="AB68" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB68" s="53"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6231,9 +6099,7 @@
       <c r="AA69" t="n" s="53">
         <v>0.012956658906040997</v>
       </c>
-      <c r="AB69" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB69" s="53"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6308,9 +6174,7 @@
       <c r="AA70" t="n" s="53">
         <v>0.9962134916515596</v>
       </c>
-      <c r="AB70" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB70" s="53"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6385,9 +6249,7 @@
       <c r="AA71" t="n" s="53">
         <v>0.5121251273990605</v>
       </c>
-      <c r="AB71" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB71" s="53"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6462,9 +6324,7 @@
       <c r="AA72" t="n" s="53">
         <v>0.9997025680546006</v>
       </c>
-      <c r="AB72" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB72" s="53"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6539,9 +6399,7 @@
       <c r="AA73" t="n" s="53">
         <v>7.592868544024956E-4</v>
       </c>
-      <c r="AB73" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB73" s="53"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6616,9 +6474,7 @@
       <c r="AA74" t="n" s="53">
         <v>0.9999999509965461</v>
       </c>
-      <c r="AB74" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB74" s="53"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6693,9 +6549,7 @@
       <c r="AA75" t="n" s="53">
         <v>0.9999992039063907</v>
       </c>
-      <c r="AB75" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB75" s="53"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6770,9 +6624,7 @@
       <c r="AA76" t="n" s="53">
         <v>0.9946695152407272</v>
       </c>
-      <c r="AB76" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB76" s="53"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6847,9 +6699,7 @@
       <c r="AA77" t="n" s="53">
         <v>1.5820429223029615E-4</v>
       </c>
-      <c r="AB77" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB77" s="53"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6924,9 +6774,7 @@
       <c r="AA78" t="n" s="53">
         <v>0.9661997229576283</v>
       </c>
-      <c r="AB78" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB78" s="53"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7001,9 +6849,7 @@
       <c r="AA79" t="n" s="53">
         <v>0.9961444951516202</v>
       </c>
-      <c r="AB79" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB79" s="53"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7078,9 +6924,7 @@
       <c r="AA80" t="n" s="53">
         <v>0.34681075861562727</v>
       </c>
-      <c r="AB80" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB80" s="53"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7155,9 +6999,7 @@
       <c r="AA81" t="n" s="53">
         <v>0.9995821083559773</v>
       </c>
-      <c r="AB81" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB81" s="53"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7232,9 +7074,7 @@
       <c r="AA82" t="n" s="53">
         <v>0.16190847711577283</v>
       </c>
-      <c r="AB82" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB82" s="53"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7309,9 +7149,7 @@
       <c r="AA83" t="n" s="53">
         <v>0.013919831013621538</v>
       </c>
-      <c r="AB83" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB83" s="53"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7386,9 +7224,7 @@
       <c r="AA84" t="n" s="53">
         <v>0.9999999901474701</v>
       </c>
-      <c r="AB84" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB84" s="53"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7463,9 +7299,7 @@
       <c r="AA85" t="n" s="53">
         <v>0.9999999989709389</v>
       </c>
-      <c r="AB85" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB85" s="53"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7540,9 +7374,7 @@
       <c r="AA86" t="n" s="53">
         <v>0.9999669938448574</v>
       </c>
-      <c r="AB86" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB86" s="53"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7617,9 +7449,7 @@
       <c r="AA87" t="n" s="53">
         <v>0.9999996164921984</v>
       </c>
-      <c r="AB87" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB87" s="53"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7694,9 +7524,7 @@
       <c r="AA88" t="n" s="53">
         <v>0.9941570509579538</v>
       </c>
-      <c r="AB88" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB88" s="53"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7771,9 +7599,7 @@
       <c r="AA89" t="n" s="53">
         <v>0.999992482892349</v>
       </c>
-      <c r="AB89" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB89" s="53"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7848,9 +7674,7 @@
       <c r="AA90" t="n" s="53">
         <v>0.99999552983922</v>
       </c>
-      <c r="AB90" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB90" s="53"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7925,9 +7749,7 @@
       <c r="AA91" t="n" s="53">
         <v>0.02098742663463673</v>
       </c>
-      <c r="AB91" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB91" s="53"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8002,9 +7824,7 @@
       <c r="AA92" t="n" s="53">
         <v>0.9999992005047935</v>
       </c>
-      <c r="AB92" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB92" s="53"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8079,9 +7899,7 @@
       <c r="AA93" t="n" s="53">
         <v>0.6360957114310517</v>
       </c>
-      <c r="AB93" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB93" s="53"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8156,9 +7974,7 @@
       <c r="AA94" t="n" s="53">
         <v>0.9999999509965461</v>
       </c>
-      <c r="AB94" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB94" s="53"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8233,9 +8049,7 @@
       <c r="AA95" t="n" s="53">
         <v>0.9488639606369811</v>
       </c>
-      <c r="AB95" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB95" s="53"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8310,9 +8124,7 @@
       <c r="AA96" t="n" s="53">
         <v>0.9999920639890891</v>
       </c>
-      <c r="AB96" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB96" s="53"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8387,9 +8199,7 @@
       <c r="AA97" t="n" s="53">
         <v>0.9999990276877887</v>
       </c>
-      <c r="AB97" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB97" s="53"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8464,9 +8274,7 @@
       <c r="AA98" t="n" s="53">
         <v>0.9701000779828477</v>
       </c>
-      <c r="AB98" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB98" s="53"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8541,9 +8349,7 @@
       <c r="AA99" t="n" s="53">
         <v>0.999999159130091</v>
       </c>
-      <c r="AB99" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB99" s="53"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8618,9 +8424,7 @@
       <c r="AA100" t="n" s="53">
         <v>0.1288824580760942</v>
       </c>
-      <c r="AB100" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB100" s="53"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -8695,9 +8499,7 @@
       <c r="AA101" t="n" s="53">
         <v>0.9999945411290988</v>
       </c>
-      <c r="AB101" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB101" s="53"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -8772,9 +8574,7 @@
       <c r="AA102" t="n" s="53">
         <v>0.7540183103772129</v>
       </c>
-      <c r="AB102" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB102" s="53"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -8849,9 +8649,7 @@
       <c r="AA103" t="n" s="53">
         <v>0.04180022375639341</v>
       </c>
-      <c r="AB103" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB103" s="53"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -8926,9 +8724,7 @@
       <c r="AA104" t="n" s="53">
         <v>0.16190847711577283</v>
       </c>
-      <c r="AB104" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB104" s="53"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9003,9 +8799,7 @@
       <c r="AA105" t="n" s="53">
         <v>0.6820143178985798</v>
       </c>
-      <c r="AB105" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB105" s="53"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -9080,9 +8874,7 @@
       <c r="AA106" t="n" s="53">
         <v>0.2048242458636715</v>
       </c>
-      <c r="AB106" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB106" s="53"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9157,9 +8949,7 @@
       <c r="AA107" t="n" s="53">
         <v>0.7682129216883317</v>
       </c>
-      <c r="AB107" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB107" s="53"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9234,9 +9024,7 @@
       <c r="AA108" t="n" s="53">
         <v>0.9999999999235255</v>
       </c>
-      <c r="AB108" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB108" s="53"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9311,9 +9099,7 @@
       <c r="AA109" t="n" s="53">
         <v>4.987242752586174E-4</v>
       </c>
-      <c r="AB109" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB109" s="53"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -9388,9 +9174,7 @@
       <c r="AA110" t="n" s="53">
         <v>0.972129242305341</v>
       </c>
-      <c r="AB110" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB110" s="53"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9465,9 +9249,7 @@
       <c r="AA111" t="n" s="53">
         <v>0.013919831013621538</v>
       </c>
-      <c r="AB111" t="n" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="AB111" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
